--- a/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
@@ -7741,12 +7741,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en País Vasco</t>
+          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en Andalucia</t>
+          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en C.Valenciana</t>
+          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6379</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8706</t>
+          <t>9311</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>4825</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9598</t>
+          <t>9465</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7070</t>
+          <t>7292</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12823</t>
+          <t>12541</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>139431</t>
+          <t>156320</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>137104</t>
+          <t>153490</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>141461</t>
+          <t>158103</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>139672</t>
+          <t>165584</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>137570</t>
+          <t>163742</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>140921</t>
+          <t>166757</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>279103</t>
+          <t>321903</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>275878</t>
+          <t>318827</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>281631</t>
+          <t>324076</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4839</t>
+          <t>5014</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3328</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7166</t>
+          <t>7348</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3677</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7103</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9683</t>
+          <t>11069</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76333</t>
+          <t>85411</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74006</t>
+          <t>83077</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77844</t>
+          <t>87026</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>106853</t>
+          <t>119546</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>105440</t>
+          <t>117560</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>107799</t>
+          <t>120865</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>183186</t>
+          <t>204957</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>180606</t>
+          <t>202024</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>185200</t>
+          <t>207277</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>15377</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14066</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21053</t>
+          <t>18763</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>20394</t>
+          <t>18666</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16917</t>
+          <t>15539</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24273</t>
+          <t>22054</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>146658</t>
+          <t>138507</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142803</t>
+          <t>135121</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149790</t>
+          <t>141389</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59949</t>
+          <t>58328</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58260</t>
+          <t>56366</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61143</t>
+          <t>59468</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>206607</t>
+          <t>196835</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>202728</t>
+          <t>193447</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210084</t>
+          <t>199962</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>92,79%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16380</t>
+          <t>15553</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13031</t>
+          <t>12785</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20160</t>
+          <t>19213</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9032</t>
+          <t>8315</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6763</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12129</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25411</t>
+          <t>23868</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21545</t>
+          <t>19959</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>30172</t>
+          <t>28090</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>153709</t>
+          <t>154166</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>149929</t>
+          <t>150506</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>157058</t>
+          <t>156934</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>168151</t>
+          <t>173875</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>165054</t>
+          <t>171247</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>170420</t>
+          <t>176006</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>321860</t>
+          <t>328041</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>317099</t>
+          <t>323819</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>325726</t>
+          <t>331950</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>94,33%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6755</t>
+          <t>7481</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9059</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11448</t>
+          <t>9872</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8956</t>
+          <t>7393</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14609</t>
+          <t>12554</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,17 +2177,17 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>18203</t>
+          <t>17354</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14780</t>
+          <t>14103</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>22085</t>
+          <t>20631</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70096</t>
+          <t>66970</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67792</t>
+          <t>64407</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72006</t>
+          <t>68980</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>121484</t>
+          <t>115544</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>118323</t>
+          <t>112862</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>123976</t>
+          <t>118023</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>191580</t>
+          <t>182513</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>187698</t>
+          <t>179236</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>195003</t>
+          <t>185764</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2310,12 +2310,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>92,94%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>822</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>261</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>7466</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>5438</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10991</t>
+          <t>9951</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8809</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6609</t>
+          <t>6234</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>11577</t>
+          <t>11191</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44616</t>
+          <t>54781</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43618</t>
+          <t>53333</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45108</t>
+          <t>55342</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>110113</t>
+          <t>115135</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>107286</t>
+          <t>112650</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>112157</t>
+          <t>117163</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>154729</t>
+          <t>169916</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>151961</t>
+          <t>167013</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>156929</t>
+          <t>171970</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,5%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>52196</t>
+          <t>50729</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45786</t>
+          <t>45143</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58346</t>
+          <t>56893</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37324</t>
+          <t>35047</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>32210</t>
+          <t>30111</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>42180</t>
+          <t>40236</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>89519</t>
+          <t>85777</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>81844</t>
+          <t>77767</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>97881</t>
+          <t>92908</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>630843</t>
+          <t>656154</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>624693</t>
+          <t>649990</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>637253</t>
+          <t>661740</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>706220</t>
+          <t>748012</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>701364</t>
+          <t>742823</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>711334</t>
+          <t>752948</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1337064</t>
+          <t>1404164</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1328702</t>
+          <t>1397033</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1344739</t>
+          <t>1412174</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>94,78%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17558</t>
+          <t>18223</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35034</t>
+          <t>36138</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>6781</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15804</t>
+          <t>16289</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>26789</t>
+          <t>26308</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>46933</t>
+          <t>47143</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>331649</t>
+          <t>330545</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>349125</t>
+          <t>348460</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>283097</t>
+          <t>282612</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>292473</t>
+          <t>292120</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>618651</t>
+          <t>618441</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>638795</t>
+          <t>639276</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,05%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19326</t>
+          <t>19556</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38375</t>
+          <t>38351</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10988</t>
+          <t>12019</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>26074</t>
+          <t>26093</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>45725</t>
+          <t>46845</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>285672</t>
+          <t>285696</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>304721</t>
+          <t>304491</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>249093</t>
+          <t>248062</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>256525</t>
+          <t>256305</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>538403</t>
+          <t>537283</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>558054</t>
+          <t>558035</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,53%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>7093</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55748</t>
+          <t>54181</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6073</t>
+          <t>6370</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15292</t>
+          <t>16298</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10239</t>
+          <t>10794</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>65011</t>
+          <t>64811</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,31%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>419676</t>
+          <t>421243</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468507</t>
+          <t>468331</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82272</t>
+          <t>81266</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91491</t>
+          <t>91194</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>507977</t>
+          <t>508177</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>562749</t>
+          <t>562194</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39998</t>
+          <t>38523</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64880</t>
+          <t>63435</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6273</t>
+          <t>6063</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28848</t>
+          <t>28482</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38139</t>
+          <t>39179</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>88714</t>
+          <t>88284</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>471275</t>
+          <t>472720</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>496157</t>
+          <t>497632</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>607790</t>
+          <t>608156</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>630365</t>
+          <t>630575</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1084079</t>
+          <t>1084509</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1134654</t>
+          <t>1133614</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,66%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21019</t>
+          <t>20341</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19874</t>
+          <t>18577</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45584</t>
+          <t>45327</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>33175</t>
+          <t>33108</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>61135</t>
+          <t>60764</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>190203</t>
+          <t>190881</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>203180</t>
+          <t>203122</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>378365</t>
+          <t>378622</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>404075</t>
+          <t>405372</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>574036</t>
+          <t>574407</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>601996</t>
+          <t>602063</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>94,79%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>479</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6696</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>40583</t>
+          <t>40373</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>60087</t>
+          <t>60990</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>42491</t>
+          <t>41811</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>63950</t>
+          <t>62521</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>160065</t>
+          <t>159941</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166304</t>
+          <t>166282</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>429881</t>
+          <t>428978</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>449385</t>
+          <t>449595</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>592779</t>
+          <t>594208</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>614238</t>
+          <t>614918</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,63%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>98556</t>
+          <t>96570</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>175161</t>
+          <t>172000</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>94887</t>
+          <t>91606</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>152096</t>
+          <t>152792</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>219123</t>
+          <t>213908</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>310693</t>
+          <t>316030</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,37%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1905131</t>
+          <t>1908292</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1981736</t>
+          <t>1983722</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2055005</t>
+          <t>2054309</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2112214</t>
+          <t>2115495</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3976700</t>
+          <t>3971363</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4068270</t>
+          <t>4073485</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>95,01%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIA-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,72 +730,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6481</t>
+          <t>27346</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>18888</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9311</t>
+          <t>37055</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2983</t>
+          <t>11444</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>7467</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>17823</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9465</t>
+          <t>38791</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7292</t>
+          <t>28527</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12541</t>
+          <t>50205</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>156320</t>
+          <t>368041</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>153490</t>
+          <t>358332</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>158103</t>
+          <t>376499</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>436</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165584</t>
+          <t>316182</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163742</t>
+          <t>309803</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>166757</t>
+          <t>320159</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>321903</t>
+          <t>684222</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>318827</t>
+          <t>672808</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>324076</t>
+          <t>694486</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>96,05%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5014</t>
+          <t>28896</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>20334</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7348</t>
+          <t>39402</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5108</t>
+          <t>12589</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8136</t>
+          <t>36057</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5816</t>
+          <t>26735</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11069</t>
+          <t>48311</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85411</t>
+          <t>315451</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83077</t>
+          <t>304945</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87026</t>
+          <t>324013</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>380</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>119546</t>
+          <t>279780</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117560</t>
+          <t>274351</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120865</t>
+          <t>282928</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>678</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>204957</t>
+          <t>595230</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>202024</t>
+          <t>582976</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>207277</t>
+          <t>604552</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15377</t>
+          <t>24935</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12495</t>
+          <t>16873</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18763</t>
+          <t>34332</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>11217</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>7053</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>17921</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>18666</t>
+          <t>36152</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15539</t>
+          <t>27037</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22054</t>
+          <t>46676</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>138507</t>
+          <t>235621</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>135121</t>
+          <t>226224</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>141389</t>
+          <t>243683</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58328</t>
+          <t>100269</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56366</t>
+          <t>93565</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59468</t>
+          <t>104433</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>83,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>374</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>196835</t>
+          <t>335891</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>193447</t>
+          <t>325367</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>199962</t>
+          <t>345006</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>92,73%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15553</t>
+          <t>58012</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12785</t>
+          <t>45418</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19213</t>
+          <t>73015</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8315</t>
+          <t>18275</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6184</t>
+          <t>12969</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10943</t>
+          <t>25930</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23868</t>
+          <t>76287</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19959</t>
+          <t>62028</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28090</t>
+          <t>92390</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>154166</t>
+          <t>551970</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>150506</t>
+          <t>536967</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>156934</t>
+          <t>564564</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>637</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>173875</t>
+          <t>471878</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>171247</t>
+          <t>464223</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>176006</t>
+          <t>477184</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>328041</t>
+          <t>1023848</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>323819</t>
+          <t>1007745</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>331950</t>
+          <t>1038107</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,36%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7481</t>
+          <t>15513</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>9677</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10044</t>
+          <t>23202</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9872</t>
+          <t>38302</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>30362</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12554</t>
+          <t>48733</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17354</t>
+          <t>53815</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14103</t>
+          <t>42886</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20631</t>
+          <t>66385</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>66970</t>
+          <t>237828</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64407</t>
+          <t>230139</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68980</t>
+          <t>243664</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>519</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>115544</t>
+          <t>369717</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>112862</t>
+          <t>359286</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>118023</t>
+          <t>377657</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>732</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>182513</t>
+          <t>607546</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>179236</t>
+          <t>594976</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>185764</t>
+          <t>618475</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,52%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>513</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7466</t>
+          <t>54128</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>43393</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9951</t>
+          <t>66172</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8288</t>
+          <t>56142</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6234</t>
+          <t>45487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>11191</t>
+          <t>67978</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54781</t>
+          <t>167483</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53333</t>
+          <t>162790</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55342</t>
+          <t>168984</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>605</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>115135</t>
+          <t>492746</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112650</t>
+          <t>480702</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>117163</t>
+          <t>503481</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>680</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>169916</t>
+          <t>660229</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>167013</t>
+          <t>648393</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>171970</t>
+          <t>670884</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>93,65%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>50729</t>
+          <t>156716</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45143</t>
+          <t>136754</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>56893</t>
+          <t>179471</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35047</t>
+          <t>140528</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>30111</t>
+          <t>125219</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>40236</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>437</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>85777</t>
+          <t>297244</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>77767</t>
+          <t>270026</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>92908</t>
+          <t>327497</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3690</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>656154</t>
+          <t>1876394</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>649990</t>
+          <t>1853639</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>661740</t>
+          <t>1896356</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>748012</t>
+          <t>2030571</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>742823</t>
+          <t>2011274</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>752948</t>
+          <t>2045880</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7869</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1404164</t>
+          <t>3906965</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1397033</t>
+          <t>3876712</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1412174</t>
+          <t>3934183</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25871</t>
+          <t>10487</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18223</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36138</t>
+          <t>15390</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10411</t>
+          <t>5192</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6781</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16289</t>
+          <t>9766</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>36282</t>
+          <t>15679</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>26308</t>
+          <t>11100</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>47143</t>
+          <t>22005</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>340812</t>
+          <t>285036</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>330545</t>
+          <t>280133</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>348460</t>
+          <t>288588</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>459</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>288490</t>
+          <t>271508</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>282612</t>
+          <t>266934</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>292120</t>
+          <t>274210</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>948</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>629302</t>
+          <t>556543</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>618441</t>
+          <t>550217</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>639276</t>
+          <t>561122</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>98,06%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28167</t>
+          <t>7538</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19556</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38351</t>
+          <t>11961</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6815</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12019</t>
+          <t>8488</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>34982</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>26093</t>
+          <t>7493</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>46845</t>
+          <t>17169</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>295880</t>
+          <t>188234</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>285696</t>
+          <t>183811</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>304491</t>
+          <t>191262</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>253266</t>
+          <t>227748</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>248062</t>
+          <t>223491</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>256305</t>
+          <t>229992</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>713</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>549146</t>
+          <t>415981</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>537283</t>
+          <t>410581</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>558035</t>
+          <t>420257</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>98,25%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4064,102 +4064,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24241</t>
+          <t>11233</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7093</t>
+          <t>7870</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54181</t>
+          <t>16014</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10154</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16298</t>
+          <t>5786</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34396</t>
+          <t>14195</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10794</t>
+          <t>9881</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>64811</t>
+          <t>19591</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>451183</t>
+          <t>169638</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>421243</t>
+          <t>164857</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468331</t>
+          <t>173001</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87410</t>
+          <t>79837</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81266</t>
+          <t>77014</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91194</t>
+          <t>81593</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>463</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>538592</t>
+          <t>249477</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>508177</t>
+          <t>244081</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>562194</t>
+          <t>253791</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>96,25%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50301</t>
+          <t>27737</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38523</t>
+          <t>21622</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63435</t>
+          <t>36092</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>13262</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6063</t>
+          <t>8885</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28482</t>
+          <t>19201</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>67617</t>
+          <t>40999</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>39179</t>
+          <t>33169</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>88284</t>
+          <t>51022</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>513</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>485854</t>
+          <t>280696</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>472720</t>
+          <t>272341</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>497632</t>
+          <t>286811</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>619322</t>
+          <t>302701</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>608156</t>
+          <t>296762</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>630575</t>
+          <t>307078</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1105176</t>
+          <t>583397</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1084509</t>
+          <t>573374</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1133614</t>
+          <t>591227</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13381</t>
+          <t>7720</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8100</t>
+          <t>4832</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20341</t>
+          <t>12082</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34390</t>
+          <t>12000</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18577</t>
+          <t>7792</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45327</t>
+          <t>17219</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>47771</t>
+          <t>19720</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>33108</t>
+          <t>14452</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>60764</t>
+          <t>26267</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>197841</t>
+          <t>142565</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>190881</t>
+          <t>138203</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>203122</t>
+          <t>145453</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>241</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>389559</t>
+          <t>143068</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>378622</t>
+          <t>137849</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>405372</t>
+          <t>147276</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>481</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>587400</t>
+          <t>285634</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>574407</t>
+          <t>279087</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>602063</t>
+          <t>290902</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>95,27%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49670</t>
+          <t>198</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>40373</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>60990</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>51691</t>
+          <t>198</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>41811</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>62521</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>164740</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>159941</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166282</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>440298</t>
+          <t>11236</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>428978</t>
+          <t>10289</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>449595</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>605038</t>
+          <t>20584</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>594208</t>
+          <t>19705</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>614918</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>143983</t>
+          <t>64715</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>96570</t>
+          <t>54246</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>172000</t>
+          <t>75461</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>128756</t>
+          <t>37846</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>91606</t>
+          <t>29696</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>152792</t>
+          <t>47126</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>272739</t>
+          <t>102561</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>213908</t>
+          <t>88108</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>316030</t>
+          <t>115900</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1936309</t>
+          <t>1075516</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1908292</t>
+          <t>1064770</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1983722</t>
+          <t>1085985</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2078345</t>
+          <t>1036099</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2054309</t>
+          <t>1026819</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2115495</t>
+          <t>1044249</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4394</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4014654</t>
+          <t>2111615</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3971363</t>
+          <t>2098276</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4073485</t>
+          <t>2126068</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes en C.Valenciana (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de medicamentos para la diabetes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10487</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>9311</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5192</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9766</t>
+          <t>4825</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15679</t>
+          <t>9465</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11100</t>
+          <t>7292</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22005</t>
+          <t>12541</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>818</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>285036</t>
+          <t>156320</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>280133</t>
+          <t>153490</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>288588</t>
+          <t>158103</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>860</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>271508</t>
+          <t>165584</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>266934</t>
+          <t>163742</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>274210</t>
+          <t>166757</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>556543</t>
+          <t>321903</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>550217</t>
+          <t>318827</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>561122</t>
+          <t>324076</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7538</t>
+          <t>5014</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11961</t>
+          <t>7348</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8488</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>11769</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7493</t>
+          <t>5816</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17169</t>
+          <t>11069</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>467</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>188234</t>
+          <t>85411</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>183811</t>
+          <t>83077</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>191262</t>
+          <t>87026</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>657</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>227748</t>
+          <t>119546</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>223491</t>
+          <t>117560</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>229992</t>
+          <t>120865</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>415981</t>
+          <t>204957</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>410581</t>
+          <t>202024</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>420257</t>
+          <t>207277</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11233</t>
+          <t>15377</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7870</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>18763</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14195</t>
+          <t>18666</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9881</t>
+          <t>15539</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19591</t>
+          <t>22054</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>169638</t>
+          <t>138507</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>164857</t>
+          <t>135121</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173001</t>
+          <t>141389</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79837</t>
+          <t>58328</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77014</t>
+          <t>56366</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81593</t>
+          <t>59468</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>249477</t>
+          <t>196835</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>244081</t>
+          <t>193447</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>253791</t>
+          <t>199962</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>92,79%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27737</t>
+          <t>15553</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21622</t>
+          <t>12785</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36092</t>
+          <t>19213</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13262</t>
+          <t>8315</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19201</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>146</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>40999</t>
+          <t>23868</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>33169</t>
+          <t>19959</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51022</t>
+          <t>28090</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>908</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>280696</t>
+          <t>154166</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>272341</t>
+          <t>150506</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>286811</t>
+          <t>156934</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>988</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>302701</t>
+          <t>173875</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>296762</t>
+          <t>171247</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>307078</t>
+          <t>176006</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>583397</t>
+          <t>328041</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>573374</t>
+          <t>323819</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>591227</t>
+          <t>331950</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,33%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7720</t>
+          <t>7481</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12082</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>9872</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7792</t>
+          <t>7393</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17219</t>
+          <t>12554</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>19720</t>
+          <t>17354</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14452</t>
+          <t>14103</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>26267</t>
+          <t>20631</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>142565</t>
+          <t>66970</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>138203</t>
+          <t>64407</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>145453</t>
+          <t>68980</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>684</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>143068</t>
+          <t>115544</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>137849</t>
+          <t>112862</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>147276</t>
+          <t>118023</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>285634</t>
+          <t>182513</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>279087</t>
+          <t>179236</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>290902</t>
+          <t>185764</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>92,94%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>822</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>261</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>7466</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5438</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>9951</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6234</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>11191</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54781</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>53333</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55342</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>643</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11236</t>
+          <t>115135</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10289</t>
+          <t>112650</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>117163</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>907</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>20584</t>
+          <t>169916</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>19705</t>
+          <t>167013</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>171970</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,5%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>64715</t>
+          <t>50729</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>54246</t>
+          <t>45143</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>75461</t>
+          <t>56893</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37846</t>
+          <t>35047</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>29696</t>
+          <t>30111</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47126</t>
+          <t>40236</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>520</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>102561</t>
+          <t>85777</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>88108</t>
+          <t>77767</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>115900</t>
+          <t>92908</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>3690</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1075516</t>
+          <t>656154</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1064770</t>
+          <t>649990</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1085985</t>
+          <t>661740</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1036099</t>
+          <t>748012</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1026819</t>
+          <t>742823</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1044249</t>
+          <t>752948</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3674</t>
+          <t>7869</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2111615</t>
+          <t>1404164</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2098276</t>
+          <t>1397033</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2126068</t>
+          <t>1412174</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>94,78%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
